--- a/config_12.08/box_exchange_server.xlsx
+++ b/config_12.08/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="668">
   <si>
     <t>id|</t>
   </si>
@@ -3722,6 +3722,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3743,6 +3744,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3802,6 +3804,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3958,6 +3961,14 @@
   <si>
     <t>prop_web_chip_huafei</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空调</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4065,7 +4076,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4114,6 +4125,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4154,7 +4177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4316,6 +4339,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4595,11 +4641,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6400,6 +6446,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="61" spans="1:12" s="61" customFormat="1">
+      <c r="A61" s="61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="61" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61" s="64">
+        <v>1607385600</v>
+      </c>
+      <c r="D61" s="64">
+        <v>1607961599</v>
+      </c>
+      <c r="E61" s="62">
+        <v>55</v>
+      </c>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="61">
+        <v>60</v>
+      </c>
+      <c r="L61" s="61">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6411,11 +6485,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7191,6 +7265,20 @@
         <v>612</v>
       </c>
       <c r="D55" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="51">
+        <v>55</v>
+      </c>
+      <c r="B56" s="51">
+        <v>55</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>667</v>
+      </c>
+      <c r="D56" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7246,13 +7334,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E377"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B356" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B353" sqref="B353"/>
+      <selection pane="bottomRight" activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12545,6 +12633,90 @@
         <v>5</v>
       </c>
     </row>
+    <row r="378" spans="1:4" s="64" customFormat="1">
+      <c r="A378" s="64">
+        <v>377</v>
+      </c>
+      <c r="B378" s="64">
+        <v>60</v>
+      </c>
+      <c r="C378" s="64">
+        <v>11851</v>
+      </c>
+      <c r="D378" s="64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" s="64" customFormat="1">
+      <c r="A379" s="64">
+        <v>378</v>
+      </c>
+      <c r="B379" s="64">
+        <v>60</v>
+      </c>
+      <c r="C379" s="64">
+        <v>11852</v>
+      </c>
+      <c r="D379" s="64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" s="64" customFormat="1">
+      <c r="A380" s="64">
+        <v>379</v>
+      </c>
+      <c r="B380" s="64">
+        <v>60</v>
+      </c>
+      <c r="C380" s="64">
+        <v>11853</v>
+      </c>
+      <c r="D380" s="64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" s="64" customFormat="1">
+      <c r="A381" s="64">
+        <v>380</v>
+      </c>
+      <c r="B381" s="64">
+        <v>60</v>
+      </c>
+      <c r="C381" s="64">
+        <v>11854</v>
+      </c>
+      <c r="D381" s="64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" s="64" customFormat="1">
+      <c r="A382" s="64">
+        <v>381</v>
+      </c>
+      <c r="B382" s="64">
+        <v>60</v>
+      </c>
+      <c r="C382" s="64">
+        <v>11855</v>
+      </c>
+      <c r="D382" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" s="64" customFormat="1">
+      <c r="A383" s="64">
+        <v>382</v>
+      </c>
+      <c r="B383" s="64">
+        <v>60</v>
+      </c>
+      <c r="C383" s="64">
+        <v>11856</v>
+      </c>
+      <c r="D383" s="64">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12554,11 +12726,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F377"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F368" sqref="F368"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18494,6 +18666,104 @@
       <c r="E377" s="57" t="s">
         <v>655</v>
       </c>
+    </row>
+    <row r="378" spans="1:5" s="66" customFormat="1">
+      <c r="A378" s="66">
+        <v>377</v>
+      </c>
+      <c r="B378" s="64">
+        <v>11851</v>
+      </c>
+      <c r="C378" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="D378" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E378" s="67" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" s="66" customFormat="1">
+      <c r="A379" s="66">
+        <v>378</v>
+      </c>
+      <c r="B379" s="64">
+        <v>11852</v>
+      </c>
+      <c r="C379" s="68" t="s">
+        <v>508</v>
+      </c>
+      <c r="D379" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="E379" s="67" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" s="66" customFormat="1">
+      <c r="A380" s="66">
+        <v>379</v>
+      </c>
+      <c r="B380" s="64">
+        <v>11853</v>
+      </c>
+      <c r="C380" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="D380" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E380" s="67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" s="66" customFormat="1">
+      <c r="A381" s="66">
+        <v>380</v>
+      </c>
+      <c r="B381" s="64">
+        <v>11854</v>
+      </c>
+      <c r="C381" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="D381" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="E381" s="67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" s="66" customFormat="1">
+      <c r="A382" s="66">
+        <v>381</v>
+      </c>
+      <c r="B382" s="64">
+        <v>11855</v>
+      </c>
+      <c r="C382" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="D382" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="E382" s="67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" s="66" customFormat="1">
+      <c r="A383" s="66">
+        <v>382</v>
+      </c>
+      <c r="B383" s="64">
+        <v>11856</v>
+      </c>
+      <c r="C383" s="68" t="s">
+        <v>666</v>
+      </c>
+      <c r="D383" s="64"/>
+      <c r="E383" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_12.08/box_exchange_server.xlsx
+++ b/config_12.08/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="669">
   <si>
     <t>id|</t>
   </si>
@@ -3968,6 +3968,10 @@
   </si>
   <si>
     <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4643,9 +4647,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6451,7 +6455,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="C61" s="64">
         <v>1607385600</v>
@@ -6487,7 +6491,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
@@ -7337,10 +7341,10 @@
   <dimension ref="A1:E383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B356" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C382" sqref="C382"/>
+      <selection pane="bottomRight" activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
